--- a/data/project_tasks.xlsx
+++ b/data/project_tasks.xlsx
@@ -34,228 +34,229 @@
     <t>end_date</t>
   </si>
   <si>
-    <t>Team Alpha</t>
-  </si>
-  <si>
-    <t>Group1</t>
-  </si>
-  <si>
-    <t>Task 1 description</t>
-  </si>
-  <si>
-    <t>Team Beta</t>
-  </si>
-  <si>
-    <t>Group2</t>
-  </si>
-  <si>
-    <t>Task 2 description</t>
-  </si>
-  <si>
-    <t>Team Gamma</t>
-  </si>
-  <si>
-    <t>Group3</t>
-  </si>
-  <si>
-    <t>Task 3 description</t>
-  </si>
-  <si>
-    <t>Team Delta</t>
-  </si>
-  <si>
-    <t>Group4</t>
-  </si>
-  <si>
-    <t>Task 4 description</t>
-  </si>
-  <si>
-    <t>Group5</t>
-  </si>
-  <si>
-    <t>Task 5 description</t>
-  </si>
-  <si>
-    <t>Group6</t>
-  </si>
-  <si>
-    <t>Task 6 description</t>
-  </si>
-  <si>
-    <t>4;5</t>
-  </si>
-  <si>
-    <t>Group7</t>
-  </si>
-  <si>
-    <t>Task 7 description</t>
-  </si>
-  <si>
-    <t>Group8</t>
-  </si>
-  <si>
-    <t>Task 8 description</t>
-  </si>
-  <si>
-    <t>Group9</t>
-  </si>
-  <si>
-    <t>Task 9 description</t>
-  </si>
-  <si>
-    <t>7;8;9</t>
-  </si>
-  <si>
-    <t>Group10</t>
-  </si>
-  <si>
-    <t>Task 10 description</t>
-  </si>
-  <si>
-    <t>Group11</t>
-  </si>
-  <si>
-    <t>Task 11 description</t>
-  </si>
-  <si>
-    <t>Group12</t>
-  </si>
-  <si>
-    <t>Task 12 description</t>
-  </si>
-  <si>
-    <t>Group13</t>
-  </si>
-  <si>
-    <t>Task 13 description</t>
-  </si>
-  <si>
-    <t>Group14</t>
-  </si>
-  <si>
-    <t>Task 14 description</t>
-  </si>
-  <si>
-    <t>Group15</t>
-  </si>
-  <si>
-    <t>Task 15 description</t>
-  </si>
-  <si>
-    <t>14;15</t>
-  </si>
-  <si>
-    <t>Group16</t>
-  </si>
-  <si>
-    <t>Task 16 description</t>
-  </si>
-  <si>
-    <t>Group17</t>
-  </si>
-  <si>
-    <t>Task 17 description</t>
-  </si>
-  <si>
-    <t>Group18</t>
-  </si>
-  <si>
-    <t>Task 18 description</t>
-  </si>
-  <si>
-    <t>Group19</t>
-  </si>
-  <si>
-    <t>Task 19 description</t>
-  </si>
-  <si>
-    <t>18;19</t>
-  </si>
-  <si>
-    <t>Task 20 description</t>
-  </si>
-  <si>
-    <t>Task 21 description</t>
-  </si>
-  <si>
-    <t>Task 23 description</t>
-  </si>
-  <si>
-    <t>Task 24 description</t>
-  </si>
-  <si>
-    <t>23;24</t>
-  </si>
-  <si>
-    <t>Task 25 description</t>
-  </si>
-  <si>
-    <t>Task 26 description</t>
-  </si>
-  <si>
-    <t>Task 27 description</t>
-  </si>
-  <si>
-    <t>25;27</t>
-  </si>
-  <si>
-    <t>Task 28 description</t>
-  </si>
-  <si>
-    <t>Task 29 description</t>
-  </si>
-  <si>
-    <t>28;29</t>
-  </si>
-  <si>
-    <t>Task 30 description</t>
-  </si>
-  <si>
-    <t>Task 31 description</t>
-  </si>
-  <si>
-    <t>Task 32 description</t>
-  </si>
-  <si>
-    <t>Task 33 description</t>
-  </si>
-  <si>
-    <t>Task 34 description</t>
-  </si>
-  <si>
-    <t>33;34</t>
-  </si>
-  <si>
-    <t>Task 35 description</t>
-  </si>
-  <si>
-    <t>Task 36 description</t>
-  </si>
-  <si>
-    <t>Task 37 description</t>
-  </si>
-  <si>
-    <t>35;37</t>
-  </si>
-  <si>
-    <t>Task 38 description</t>
-  </si>
-  <si>
-    <t>Task 39 description</t>
-  </si>
-  <si>
-    <t>38;39</t>
-  </si>
-  <si>
-    <t>Task 40 description</t>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Market Research</t>
+  </si>
+  <si>
+    <t>Conduct industry analysis</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Budget Planning</t>
+  </si>
+  <si>
+    <t>Draft initial budget</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>System Design</t>
+  </si>
+  <si>
+    <t>Create architecture blueprint</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Brand Strategy</t>
+  </si>
+  <si>
+    <t>Define core messaging</t>
+  </si>
+  <si>
+    <t>Analyze competitor features</t>
+  </si>
+  <si>
+    <t>Finalize funding allocation</t>
+  </si>
+  <si>
+    <t>Select tech stack</t>
+  </si>
+  <si>
+    <t>Create style guide</t>
+  </si>
+  <si>
+    <t>Vendor Management</t>
+  </si>
+  <si>
+    <t>Shortlist SaaS vendors</t>
+  </si>
+  <si>
+    <t>Dev Environment</t>
+  </si>
+  <si>
+    <t>Setup dev environment</t>
+  </si>
+  <si>
+    <t>Legal Compliance</t>
+  </si>
+  <si>
+    <t>Review contracts</t>
+  </si>
+  <si>
+    <t>Content Creation</t>
+  </si>
+  <si>
+    <t>Write website copy</t>
+  </si>
+  <si>
+    <t>Core Development</t>
+  </si>
+  <si>
+    <t>Build authentication module</t>
+  </si>
+  <si>
+    <t>Negotiate contracts</t>
+  </si>
+  <si>
+    <t>Financial Systems</t>
+  </si>
+  <si>
+    <t>Set up accounting system</t>
+  </si>
+  <si>
+    <t>Testing Framework</t>
+  </si>
+  <si>
+    <t>Create test cases</t>
+  </si>
+  <si>
+    <t>Social Media</t>
+  </si>
+  <si>
+    <t>Launch Twitter account</t>
+  </si>
+  <si>
+    <t>Data Migration</t>
+  </si>
+  <si>
+    <t>Transfer customer data</t>
+  </si>
+  <si>
+    <t>Implement payment gateway</t>
+  </si>
+  <si>
+    <t>Process payroll integration</t>
+  </si>
+  <si>
+    <t>Advertising</t>
+  </si>
+  <si>
+    <t>Design banner ads</t>
+  </si>
+  <si>
+    <t>User Training</t>
+  </si>
+  <si>
+    <t>Create FAQ docs</t>
+  </si>
+  <si>
+    <t>Build admin dashboard</t>
+  </si>
+  <si>
+    <t>Reporting</t>
+  </si>
+  <si>
+    <t>Generate financial statements</t>
+  </si>
+  <si>
+    <t>Schedule Q2 posts</t>
+  </si>
+  <si>
+    <t>Launch Prep</t>
+  </si>
+  <si>
+    <t>Coordinate beta release</t>
+  </si>
+  <si>
+    <t>Payments</t>
+  </si>
+  <si>
+    <t>Enable billing system</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t>Production server setup</t>
+  </si>
+  <si>
+    <t>Events</t>
+  </si>
+  <si>
+    <t>Plan launch webinar</t>
+  </si>
+  <si>
+    <t>Train support team</t>
+  </si>
+  <si>
+    <t>Release v1.0</t>
+  </si>
+  <si>
+    <t>Execute press release</t>
+  </si>
+  <si>
+    <t>Analytics</t>
+  </si>
+  <si>
+    <t>Implement Mixpanel</t>
+  </si>
+  <si>
+    <t>Forecasting</t>
+  </si>
+  <si>
+    <t>Update revenue model</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>Hotfix deployment</t>
+  </si>
+  <si>
+    <t>SEO</t>
+  </si>
+  <si>
+    <t>Optimize landing pages</t>
+  </si>
+  <si>
+    <t>Partnerships</t>
+  </si>
+  <si>
+    <t>Sign reseller agreement</t>
+  </si>
+  <si>
+    <t>Investor Relations</t>
+  </si>
+  <si>
+    <t>Prepare board report</t>
+  </si>
+  <si>
+    <t>Optimization</t>
+  </si>
+  <si>
+    <t>Database indexing</t>
+  </si>
+  <si>
+    <t>Retention</t>
+  </si>
+  <si>
+    <t>Create loyalty program</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="59" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -294,56 +295,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -367,7 +324,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -377,37 +334,19 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1461,7 +1400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1470,8 +1409,8 @@
     <col min="1" max="1" width="11.3516" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.8516" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.6719" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.8516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.8516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.0625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.1719" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.1719" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.3516" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.85156" style="1" customWidth="1"/>
@@ -1496,883 +1435,878 @@
       <c r="F1" t="s" s="3">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="16" customHeight="1">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="6">
+      <c r="B2" t="s" s="3">
         <v>7</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" t="s" s="6">
+      <c r="C2" s="5"/>
+      <c r="D2" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="E2" t="s" s="6">
+      <c r="E2" t="s" s="3">
         <v>9</v>
       </c>
-      <c r="F2" s="8">
-        <v>45658</v>
-      </c>
-      <c r="G2" s="8">
-        <v>45665</v>
+      <c r="F2" s="6">
+        <v>45659</v>
+      </c>
+      <c r="G2" s="6">
+        <v>45663</v>
       </c>
     </row>
     <row r="3" ht="16" customHeight="1">
-      <c r="A3" s="9">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="10">
+      <c r="B3" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" t="s" s="10">
+      <c r="C3" s="5"/>
+      <c r="D3" t="s" s="3">
         <v>11</v>
       </c>
-      <c r="E3" t="s" s="10">
+      <c r="E3" t="s" s="3">
         <v>12</v>
       </c>
-      <c r="F3" s="12">
-        <v>45658</v>
-      </c>
-      <c r="G3" s="12">
+      <c r="F3" s="6">
+        <v>45660</v>
+      </c>
+      <c r="G3" s="6">
+        <v>45662</v>
+      </c>
+    </row>
+    <row r="4" ht="16" customHeight="1">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="F4" s="6">
+        <v>45661</v>
+      </c>
+      <c r="G4" s="6">
         <v>45667</v>
       </c>
     </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="9">
+    <row r="5" ht="16" customHeight="1">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F5" s="6">
+        <v>45662</v>
+      </c>
+      <c r="G5" s="6">
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="6" ht="16" customHeight="1">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="F6" s="6">
+        <v>45666</v>
+      </c>
+      <c r="G6" s="6">
+        <v>45669</v>
+      </c>
+    </row>
+    <row r="7" ht="16" customHeight="1">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="F7" s="6">
+        <v>45667</v>
+      </c>
+      <c r="G7" s="6">
+        <v>45670</v>
+      </c>
+    </row>
+    <row r="8" ht="16" customHeight="1">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="C8" s="7">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="10">
+      <c r="D8" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="F8" s="6">
+        <v>45668</v>
+      </c>
+      <c r="G8" s="6">
+        <v>45673</v>
+      </c>
+    </row>
+    <row r="9" ht="16" customHeight="1">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="C9" s="7">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="F9" s="6">
+        <v>45669</v>
+      </c>
+      <c r="G9" s="6">
+        <v>45674</v>
+      </c>
+    </row>
+    <row r="10" ht="16" customHeight="1">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="F10" s="6">
+        <v>45675</v>
+      </c>
+      <c r="G10" s="6">
+        <v>45677</v>
+      </c>
+    </row>
+    <row r="11" ht="16" customHeight="1">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s" s="3">
         <v>13</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" t="s" s="10">
+      <c r="C11" s="7">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="F11" s="6">
+        <v>45676</v>
+      </c>
+      <c r="G11" s="6">
+        <v>45680</v>
+      </c>
+    </row>
+    <row r="12" ht="16" customHeight="1">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="F12" s="6">
+        <v>45681</v>
+      </c>
+      <c r="G12" s="6">
+        <v>45683</v>
+      </c>
+    </row>
+    <row r="13" ht="16" customHeight="1">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="F13" s="6">
+        <v>45682</v>
+      </c>
+      <c r="G13" s="6">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="14" ht="16" customHeight="1">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="C14" s="7">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="F14" s="6">
+        <v>45684</v>
+      </c>
+      <c r="G14" s="6">
+        <v>45689</v>
+      </c>
+    </row>
+    <row r="15" ht="16" customHeight="1">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="E4" t="s" s="10">
+      <c r="B15" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="F15" s="6">
+        <v>45688</v>
+      </c>
+      <c r="G15" s="6">
+        <v>45691</v>
+      </c>
+    </row>
+    <row r="16" ht="16" customHeight="1">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="F4" s="12">
-        <v>45659</v>
-      </c>
-      <c r="G4" s="12">
-        <v>45664</v>
-      </c>
-    </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="9">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s" s="10">
+      <c r="B16" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="F16" s="6">
+        <v>45690</v>
+      </c>
+      <c r="G16" s="6">
+        <v>45694</v>
+      </c>
+    </row>
+    <row r="17" ht="16" customHeight="1">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="C5" s="13">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s" s="10">
+      <c r="B17" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="F17" s="6">
+        <v>45695</v>
+      </c>
+      <c r="G17" s="6">
+        <v>45709</v>
+      </c>
+    </row>
+    <row r="18" ht="16" customHeight="1">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="E5" t="s" s="10">
+      <c r="B18" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="E18" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="F18" s="6">
+        <v>45696</v>
+      </c>
+      <c r="G18" s="6">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="19" ht="16" customHeight="1">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="F5" s="12">
-        <v>45666</v>
-      </c>
-      <c r="G5" s="12">
-        <v>45671</v>
-      </c>
-    </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="9">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s" s="10">
+      <c r="B19" t="s" s="3">
         <v>7</v>
       </c>
-      <c r="C6" s="13">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s" s="10">
+      <c r="C19" s="5"/>
+      <c r="D19" t="s" s="3">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="F19" s="6">
+        <v>45701</v>
+      </c>
+      <c r="G19" s="6">
+        <v>45704</v>
+      </c>
+    </row>
+    <row r="20" ht="16" customHeight="1">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="E6" t="s" s="10">
+      <c r="B20" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="C20" s="7">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="F20" s="6">
+        <v>45702</v>
+      </c>
+      <c r="G20" s="6">
+        <v>45708</v>
+      </c>
+    </row>
+    <row r="21" ht="16" customHeight="1">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="F6" s="12">
-        <v>45665</v>
-      </c>
-      <c r="G6" s="12">
-        <v>45670</v>
-      </c>
-    </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="9">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s" s="10">
+      <c r="B21" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="C7" s="13">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s" s="10">
+      <c r="C21" s="7">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="E21" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="F21" s="6">
+        <v>45705</v>
+      </c>
+      <c r="G21" s="6">
+        <v>45709</v>
+      </c>
+    </row>
+    <row r="22" ht="16" customHeight="1">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="E7" t="s" s="10">
+      <c r="B22" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="E22" t="s" s="3">
+        <v>45</v>
+      </c>
+      <c r="F22" s="6">
+        <v>45710</v>
+      </c>
+      <c r="G22" s="6">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="23" ht="16" customHeight="1">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="F7" s="12">
-        <v>45668</v>
-      </c>
-      <c r="G7" s="12">
-        <v>45673</v>
-      </c>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="9">
+      <c r="B23" t="s" s="3">
         <v>7</v>
       </c>
-      <c r="B8" t="s" s="10">
+      <c r="C23" s="5"/>
+      <c r="D23" t="s" s="3">
+        <v>46</v>
+      </c>
+      <c r="E23" t="s" s="3">
+        <v>47</v>
+      </c>
+      <c r="F23" s="6">
+        <v>45711</v>
+      </c>
+      <c r="G23" s="6">
+        <v>45743</v>
+      </c>
+    </row>
+    <row r="24" ht="16" customHeight="1">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s" s="3">
         <v>13</v>
       </c>
-      <c r="C8" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s" s="10">
+      <c r="C24" s="7">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="E24" t="s" s="3">
+        <v>48</v>
+      </c>
+      <c r="F24" s="6">
+        <v>45716</v>
+      </c>
+      <c r="G24" s="6">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="25" ht="16" customHeight="1">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="E8" t="s" s="10">
+      <c r="B25" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" t="s" s="3">
+        <v>49</v>
+      </c>
+      <c r="E25" t="s" s="3">
+        <v>50</v>
+      </c>
+      <c r="F25" s="6">
+        <v>45717</v>
+      </c>
+      <c r="G25" s="6">
+        <v>45753</v>
+      </c>
+    </row>
+    <row r="26" ht="16" customHeight="1">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="F8" s="12">
-        <v>45672</v>
-      </c>
-      <c r="G8" s="12">
-        <v>45677</v>
-      </c>
-    </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s" s="10">
+      <c r="B26" t="s" s="3">
         <v>16</v>
       </c>
-      <c r="C9" s="13">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s" s="10">
-        <v>27</v>
-      </c>
-      <c r="F9" s="12">
-        <v>45674</v>
-      </c>
-      <c r="G9" s="12">
-        <v>45679</v>
-      </c>
-    </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="9">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s" s="10">
+      <c r="C26" s="7">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="E26" t="s" s="3">
+        <v>51</v>
+      </c>
+      <c r="F26" s="6">
+        <v>45723</v>
+      </c>
+      <c r="G26" s="6">
+        <v>45725</v>
+      </c>
+    </row>
+    <row r="27" ht="16" customHeight="1">
+      <c r="A27" s="7">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s" s="3">
         <v>7</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" t="s" s="10">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s" s="10">
-        <v>29</v>
-      </c>
-      <c r="F10" s="12">
-        <v>45662</v>
-      </c>
-      <c r="G10" s="12">
-        <v>45669</v>
-      </c>
-    </row>
-    <row r="11" ht="16" customHeight="1">
-      <c r="A11" s="9">
+      <c r="C27" s="5"/>
+      <c r="D27" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="E27" t="s" s="3">
+        <v>53</v>
+      </c>
+      <c r="F27" s="6">
+        <v>45744</v>
+      </c>
+      <c r="G27" s="6">
+        <v>45746</v>
+      </c>
+    </row>
+    <row r="28" ht="16" customHeight="1">
+      <c r="A28" s="7">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="B11" t="s" s="10">
+      <c r="C28" s="5"/>
+      <c r="D28" t="s" s="3">
+        <v>54</v>
+      </c>
+      <c r="E28" t="s" s="3">
+        <v>55</v>
+      </c>
+      <c r="F28" s="6">
+        <v>45747</v>
+      </c>
+      <c r="G28" s="6">
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="29" ht="16" customHeight="1">
+      <c r="A29" s="7">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" t="s" s="3">
+        <v>56</v>
+      </c>
+      <c r="E29" t="s" s="3">
+        <v>57</v>
+      </c>
+      <c r="F29" s="6">
+        <v>45752</v>
+      </c>
+      <c r="G29" s="6">
+        <v>45754</v>
+      </c>
+    </row>
+    <row r="30" ht="16" customHeight="1">
+      <c r="A30" s="7">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" t="s" s="3">
+        <v>58</v>
+      </c>
+      <c r="E30" t="s" s="3">
+        <v>59</v>
+      </c>
+      <c r="F30" s="6">
+        <v>45753</v>
+      </c>
+      <c r="G30" s="6">
+        <v>45758</v>
+      </c>
+    </row>
+    <row r="31" ht="16" customHeight="1">
+      <c r="A31" s="7">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="C31" s="7">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="E31" t="s" s="3">
+        <v>60</v>
+      </c>
+      <c r="F31" s="6">
+        <v>45759</v>
+      </c>
+      <c r="G31" s="6">
+        <v>45761</v>
+      </c>
+    </row>
+    <row r="32" ht="16" customHeight="1">
+      <c r="A32" s="7">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="C32" s="7">
+        <v>33</v>
+      </c>
+      <c r="D32" t="s" s="3">
+        <v>56</v>
+      </c>
+      <c r="E32" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="F32" s="6">
+        <v>45764</v>
+      </c>
+      <c r="G32" s="6">
+        <v>45766</v>
+      </c>
+    </row>
+    <row r="33" ht="16" customHeight="1">
+      <c r="A33" s="7">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="C33" s="7">
+        <v>34</v>
+      </c>
+      <c r="D33" t="s" s="3">
+        <v>58</v>
+      </c>
+      <c r="E33" t="s" s="3">
+        <v>62</v>
+      </c>
+      <c r="F33" s="6">
+        <v>45767</v>
+      </c>
+      <c r="G33" s="6">
+        <v>45768</v>
+      </c>
+    </row>
+    <row r="34" ht="16" customHeight="1">
+      <c r="A34" s="7">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="E34" t="s" s="3">
+        <v>64</v>
+      </c>
+      <c r="F34" s="6">
+        <v>45771</v>
+      </c>
+      <c r="G34" s="6">
+        <v>45773</v>
+      </c>
+    </row>
+    <row r="35" ht="16" customHeight="1">
+      <c r="A35" s="7">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="E11" t="s" s="10">
-        <v>32</v>
-      </c>
-      <c r="F11" s="12">
-        <v>45680</v>
-      </c>
-      <c r="G11" s="12">
-        <v>45685</v>
-      </c>
-    </row>
-    <row r="12" ht="16" customHeight="1">
-      <c r="A12" s="9">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s" s="10">
+      <c r="C35" s="5"/>
+      <c r="D35" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="E35" t="s" s="3">
+        <v>66</v>
+      </c>
+      <c r="F35" s="6">
+        <v>45772</v>
+      </c>
+      <c r="G35" s="6">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="36" ht="16" customHeight="1">
+      <c r="A36" s="7">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s" s="3">
         <v>13</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C36" s="5"/>
+      <c r="D36" t="s" s="3">
+        <v>67</v>
+      </c>
+      <c r="E36" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="F36" s="6">
+        <v>45741</v>
+      </c>
+      <c r="G36" s="6">
+        <v>45780</v>
+      </c>
+    </row>
+    <row r="37" ht="16" customHeight="1">
+      <c r="A37" s="7">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" t="s" s="3">
+        <v>69</v>
+      </c>
+      <c r="E37" t="s" s="3">
+        <v>70</v>
+      </c>
+      <c r="F37" s="6">
+        <v>45781</v>
+      </c>
+      <c r="G37" s="6">
+        <v>45785</v>
+      </c>
+    </row>
+    <row r="38" ht="16" customHeight="1">
+      <c r="A38" s="7">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" t="s" s="3">
+        <v>71</v>
+      </c>
+      <c r="E38" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="F38" s="6">
+        <v>45786</v>
+      </c>
+      <c r="G38" s="6">
+        <v>45788</v>
+      </c>
+    </row>
+    <row r="39" ht="16" customHeight="1">
+      <c r="A39" s="7">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="D12" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="E12" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="F12" s="12">
-        <v>45686</v>
-      </c>
-      <c r="G12" s="12">
-        <v>45692</v>
-      </c>
-    </row>
-    <row r="13" ht="16" customHeight="1">
-      <c r="A13" s="9">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s" s="10">
+      <c r="C39" s="5"/>
+      <c r="D39" t="s" s="3">
+        <v>73</v>
+      </c>
+      <c r="E39" t="s" s="3">
+        <v>74</v>
+      </c>
+      <c r="F39" s="6">
+        <v>45789</v>
+      </c>
+      <c r="G39" s="6">
+        <v>45792</v>
+      </c>
+    </row>
+    <row r="40" ht="16" customHeight="1">
+      <c r="A40" s="7">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="E40" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="F40" s="6">
+        <v>45793</v>
+      </c>
+      <c r="G40" s="6">
+        <v>45795</v>
+      </c>
+    </row>
+    <row r="41" ht="16" customHeight="1">
+      <c r="A41" s="7">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s" s="3">
         <v>16</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" t="s" s="10">
-        <v>35</v>
-      </c>
-      <c r="E13" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="F13" s="12">
-        <v>45677</v>
-      </c>
-      <c r="G13" s="12">
-        <v>45683</v>
-      </c>
-    </row>
-    <row r="14" ht="16" customHeight="1">
-      <c r="A14" s="9">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="C14" s="13">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="E14" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="F14" s="12">
-        <v>45684</v>
-      </c>
-      <c r="G14" s="12">
-        <v>45690</v>
-      </c>
-    </row>
-    <row r="15" ht="16" customHeight="1">
-      <c r="A15" s="9">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C15" s="13">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="E15" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="F15" s="12">
-        <v>45693</v>
-      </c>
-      <c r="G15" s="12">
-        <v>45698</v>
-      </c>
-    </row>
-    <row r="16" ht="16" customHeight="1">
-      <c r="A16" s="9">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="C16" s="13">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="E16" t="s" s="10">
-        <v>42</v>
-      </c>
-      <c r="F16" s="12">
-        <v>45691</v>
-      </c>
-      <c r="G16" s="12">
-        <v>45696</v>
-      </c>
-    </row>
-    <row r="17" ht="16" customHeight="1">
-      <c r="A17" s="9">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="D17" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="E17" t="s" s="10">
-        <v>45</v>
-      </c>
-      <c r="F17" s="12">
-        <v>45699</v>
-      </c>
-      <c r="G17" s="12">
-        <v>45704</v>
-      </c>
-    </row>
-    <row r="18" ht="16" customHeight="1">
-      <c r="A18" s="9">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" t="s" s="10">
-        <v>46</v>
-      </c>
-      <c r="E18" t="s" s="10">
-        <v>47</v>
-      </c>
-      <c r="F18" s="12">
-        <v>45689</v>
-      </c>
-      <c r="G18" s="12">
-        <v>45695</v>
-      </c>
-    </row>
-    <row r="19" ht="16" customHeight="1">
-      <c r="A19" s="9">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C19" s="13">
-        <v>16</v>
-      </c>
-      <c r="D19" t="s" s="10">
-        <v>48</v>
-      </c>
-      <c r="E19" t="s" s="10">
-        <v>49</v>
-      </c>
-      <c r="F19" s="12">
-        <v>45705</v>
-      </c>
-      <c r="G19" s="12">
-        <v>45710</v>
-      </c>
-    </row>
-    <row r="20" ht="16" customHeight="1">
-      <c r="A20" s="9">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="C20" s="13">
-        <v>17</v>
-      </c>
-      <c r="D20" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="E20" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="F20" s="12">
-        <v>45696</v>
-      </c>
-      <c r="G20" s="12">
-        <v>45700</v>
-      </c>
-    </row>
-    <row r="21" ht="16" customHeight="1">
-      <c r="A21" s="9">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="D21" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="E21" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="F21" s="12">
-        <v>45711</v>
-      </c>
-      <c r="G21" s="12">
-        <v>45716</v>
-      </c>
-    </row>
-    <row r="22" ht="16" customHeight="1">
-      <c r="A22" s="9">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="C22" s="13">
-        <v>20</v>
-      </c>
-      <c r="D22" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="E22" t="s" s="10">
-        <v>54</v>
-      </c>
-      <c r="F22" s="12">
-        <v>45717</v>
-      </c>
-      <c r="G22" s="12">
-        <v>45722</v>
-      </c>
-    </row>
-    <row r="23" ht="16" customHeight="1">
-      <c r="A23" s="9">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="C23" s="13">
-        <v>21</v>
-      </c>
-      <c r="D23" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="E23" t="s" s="10">
-        <v>55</v>
-      </c>
-      <c r="F23" s="12">
-        <v>45723</v>
-      </c>
-      <c r="G23" s="12">
-        <v>45728</v>
-      </c>
-    </row>
-    <row r="24" ht="16" customHeight="1">
-      <c r="A24" s="9">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="C24" s="13">
-        <v>22</v>
-      </c>
-      <c r="D24" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="E24" t="s" s="10">
-        <v>56</v>
-      </c>
-      <c r="F24" s="12">
-        <v>45725</v>
-      </c>
-      <c r="G24" s="12">
-        <v>45731</v>
-      </c>
-    </row>
-    <row r="25" ht="16" customHeight="1">
-      <c r="A25" s="9">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="C25" t="s" s="10">
-        <v>57</v>
-      </c>
-      <c r="D25" t="s" s="10">
-        <v>46</v>
-      </c>
-      <c r="E25" t="s" s="10">
-        <v>58</v>
-      </c>
-      <c r="F25" s="12">
-        <v>45732</v>
-      </c>
-      <c r="G25" s="12">
-        <v>45737</v>
-      </c>
-    </row>
-    <row r="26" ht="16" customHeight="1">
-      <c r="A26" s="9">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" t="s" s="10">
-        <v>48</v>
-      </c>
-      <c r="E26" t="s" s="10">
-        <v>59</v>
-      </c>
-      <c r="F26" s="12">
-        <v>45721</v>
-      </c>
-      <c r="G26" s="12">
-        <v>45727</v>
-      </c>
-    </row>
-    <row r="27" ht="16" customHeight="1">
-      <c r="A27" s="9">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="C27" s="13">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="E27" t="s" s="10">
-        <v>60</v>
-      </c>
-      <c r="F27" s="12">
-        <v>45728</v>
-      </c>
-      <c r="G27" s="12">
-        <v>45733</v>
-      </c>
-    </row>
-    <row r="28" ht="16" customHeight="1">
-      <c r="A28" s="9">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="C28" t="s" s="10">
-        <v>61</v>
-      </c>
-      <c r="D28" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="E28" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="F28" s="12">
-        <v>45738</v>
-      </c>
-      <c r="G28" s="12">
-        <v>45743</v>
-      </c>
-    </row>
-    <row r="29" ht="16" customHeight="1">
-      <c r="A29" s="13">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="E29" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="F29" s="12">
-        <v>45726</v>
-      </c>
-      <c r="G29" s="12">
-        <v>45732</v>
-      </c>
-    </row>
-    <row r="30" ht="16" customHeight="1">
-      <c r="A30" s="13">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C30" t="s" s="10">
-        <v>64</v>
-      </c>
-      <c r="D30" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="E30" t="s" s="10">
-        <v>65</v>
-      </c>
-      <c r="F30" s="12">
-        <v>45744</v>
-      </c>
-      <c r="G30" s="12">
-        <v>45750</v>
-      </c>
-    </row>
-    <row r="31" ht="16" customHeight="1">
-      <c r="A31" s="13">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="C31" s="13">
-        <v>30</v>
-      </c>
-      <c r="D31" t="s" s="10">
-        <v>8</v>
-      </c>
-      <c r="E31" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="F31" s="12">
-        <v>45751</v>
-      </c>
-      <c r="G31" s="12">
-        <v>45756</v>
-      </c>
-    </row>
-    <row r="32" ht="16" customHeight="1">
-      <c r="A32" s="13">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="C32" s="11"/>
-      <c r="D32" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="E32" t="s" s="10">
-        <v>67</v>
-      </c>
-      <c r="F32" s="12">
-        <v>45748</v>
-      </c>
-      <c r="G32" s="12">
-        <v>45753</v>
-      </c>
-    </row>
-    <row r="33" ht="16" customHeight="1">
-      <c r="A33" s="13">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="C33" s="13">
-        <v>31</v>
-      </c>
-      <c r="D33" t="s" s="10">
-        <v>14</v>
-      </c>
-      <c r="E33" t="s" s="10">
-        <v>68</v>
-      </c>
-      <c r="F33" s="12">
-        <v>45757</v>
-      </c>
-      <c r="G33" s="12">
-        <v>45763</v>
-      </c>
-    </row>
-    <row r="34" ht="16" customHeight="1">
-      <c r="A34" s="13">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C34" s="13">
-        <v>32</v>
-      </c>
-      <c r="D34" t="s" s="10">
-        <v>17</v>
-      </c>
-      <c r="E34" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="F34" s="12">
-        <v>45754</v>
-      </c>
-      <c r="G34" s="12">
-        <v>45759</v>
-      </c>
-    </row>
-    <row r="35" ht="16" customHeight="1">
-      <c r="A35" s="13">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="C35" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="D35" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="E35" t="s" s="10">
-        <v>71</v>
-      </c>
-      <c r="F35" s="12">
-        <v>45764</v>
-      </c>
-      <c r="G35" s="12">
-        <v>45768</v>
-      </c>
-    </row>
-    <row r="36" ht="16" customHeight="1">
-      <c r="A36" s="13">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" t="s" s="10">
-        <v>21</v>
-      </c>
-      <c r="E36" t="s" s="10">
-        <v>72</v>
-      </c>
-      <c r="F36" s="12">
-        <v>45752</v>
-      </c>
-      <c r="G36" s="12">
-        <v>45758</v>
-      </c>
-    </row>
-    <row r="37" ht="16" customHeight="1">
-      <c r="A37" s="13">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="C37" s="13">
-        <v>36</v>
-      </c>
-      <c r="D37" t="s" s="10">
-        <v>24</v>
-      </c>
-      <c r="E37" t="s" s="10">
-        <v>73</v>
-      </c>
-      <c r="F37" s="12">
-        <v>45759</v>
-      </c>
-      <c r="G37" s="12">
-        <v>45764</v>
-      </c>
-    </row>
-    <row r="38" ht="16" customHeight="1">
-      <c r="A38" s="13">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C38" t="s" s="10">
-        <v>74</v>
-      </c>
-      <c r="D38" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="E38" t="s" s="10">
-        <v>75</v>
-      </c>
-      <c r="F38" s="12">
-        <v>45769</v>
-      </c>
-      <c r="G38" s="12">
-        <v>45774</v>
-      </c>
-    </row>
-    <row r="39" ht="16" customHeight="1">
-      <c r="A39" s="13">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="C39" s="11"/>
-      <c r="D39" t="s" s="10">
-        <v>28</v>
-      </c>
-      <c r="E39" t="s" s="10">
-        <v>76</v>
-      </c>
-      <c r="F39" s="12">
-        <v>45762</v>
-      </c>
-      <c r="G39" s="12">
-        <v>45767</v>
-      </c>
-    </row>
-    <row r="40" ht="16" customHeight="1">
-      <c r="A40" s="13">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="C40" t="s" s="10">
+      <c r="C41" s="5"/>
+      <c r="D41" t="s" s="3">
         <v>77</v>
       </c>
-      <c r="D40" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="E40" t="s" s="10">
+      <c r="E41" t="s" s="3">
         <v>78</v>
       </c>
-      <c r="F40" s="12">
-        <v>45775</v>
-      </c>
-      <c r="G40" s="12">
-        <v>45780</v>
+      <c r="F41" s="6">
+        <v>45796</v>
+      </c>
+      <c r="G41" s="6">
+        <v>45800</v>
       </c>
     </row>
   </sheetData>
